--- a/phuket.xlsx
+++ b/phuket.xlsx
@@ -1,32 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="30623" windowHeight="14244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>23:00-3:10 浦东飞普吉</t>
+  </si>
+  <si>
+    <t>自由活动 芭东</t>
+  </si>
+  <si>
+    <t>包车</t>
+  </si>
+  <si>
+    <t>皇帝岛</t>
+  </si>
+  <si>
+    <t>自由活动 卡塔</t>
+  </si>
+  <si>
+    <t>斯米兰岛</t>
+  </si>
+  <si>
+    <t>4:10-10:40 普吉飞浦东</t>
+  </si>
   <si>
     <t>五月</t>
   </si>
   <si>
+    <t>3号</t>
+  </si>
+  <si>
     <t>4号</t>
   </si>
   <si>
-    <t>3号</t>
-  </si>
-  <si>
     <t>5号</t>
   </si>
   <si>
@@ -45,59 +69,36 @@
     <t>10号</t>
   </si>
   <si>
-    <t>下午</t>
+    <t>起床早饭</t>
+  </si>
+  <si>
+    <t>慈溪</t>
+  </si>
+  <si>
+    <t>3:10 抵达普吉岛
+9点半酒店早饭</t>
+  </si>
+  <si>
+    <t>9点酒店早饭</t>
+  </si>
+  <si>
+    <t>酒店早饭(赶路)</t>
+  </si>
+  <si>
+    <t>酒店早饭(自然醒)</t>
+  </si>
+  <si>
+    <t>酒店早饭 (自然醒)</t>
+  </si>
+  <si>
+    <t>机场等待 4:10 起飞</t>
   </si>
   <si>
     <t>上午</t>
   </si>
   <si>
-    <t>午饭</t>
-  </si>
-  <si>
-    <t>起床早饭</t>
-  </si>
-  <si>
-    <t>住宿</t>
-  </si>
-  <si>
-    <t>晚上</t>
-  </si>
-  <si>
-    <t>芭东海滩初游</t>
-  </si>
-  <si>
-    <t>包车</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>23:00-3:10 浦东飞普吉</t>
-  </si>
-  <si>
-    <t>4:10-10:40 普吉飞浦东</t>
-  </si>
-  <si>
-    <t>附近吃饭 中午退房</t>
-  </si>
-  <si>
-    <t>皇帝岛</t>
-  </si>
-  <si>
-    <t>斯米兰岛</t>
-  </si>
-  <si>
-    <t>自由活动 卡塔</t>
-  </si>
-  <si>
-    <t>自由活动 芭东</t>
-  </si>
-  <si>
-    <t>跟团斯米兰岛</t>
-  </si>
-  <si>
-    <t>Orientala Spa
-酒吧街</t>
+    <t>江西冷购物
+班赞生鲜市场</t>
   </si>
   <si>
     <t xml:space="preserve">沿路初游卡伦/卡塔岛
@@ -105,20 +106,91 @@
 </t>
   </si>
   <si>
+    <t>跟团皇帝岛</t>
+  </si>
+  <si>
+    <t>卡塔海滩游玩</t>
+  </si>
+  <si>
+    <t>跟团斯米兰岛</t>
+  </si>
+  <si>
+    <t>10:40抵达入关</t>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>酒店附近吃饭
+行李寄存到新酒店</t>
+  </si>
+  <si>
+    <t>拉威海鲜市场/或其他地方
+吃饭</t>
+  </si>
+  <si>
+    <t>附近吃饭
+寄存行李</t>
+  </si>
+  <si>
+    <t>附近吃饭 中午退房</t>
+  </si>
+  <si>
+    <t>机场吃饭/或回家附近补觉</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>慈溪开车前往上海</t>
+  </si>
+  <si>
+    <t>芭东海滩初游</t>
+  </si>
+  <si>
+    <t>King Power购物
+普吉镇</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
     <t>淘宝服务 Spa+送机</t>
   </si>
   <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>张江晚饭</t>
+  </si>
+  <si>
+    <t>芭东夜市</t>
+  </si>
+  <si>
+    <t>回酒店附近吃饭</t>
+  </si>
+  <si>
     <t>幻多奇</t>
   </si>
   <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>前往机场
+浦东机场日上免税店购物</t>
+  </si>
+  <si>
+    <t>Orientala Spa
+酒吧街</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
     <t>酒店附近吃饭</t>
   </si>
   <si>
-    <t>跟团皇帝岛</t>
-  </si>
-  <si>
-    <t>卡塔海滩
-Malisa Villa</t>
+    <t>住宿</t>
   </si>
   <si>
     <t>芭东海滩
@@ -129,10 +201,28 @@
 感官酒店(500)</t>
   </si>
   <si>
+    <t>卡塔海滩
+桄榔大山坡酒店
+Sugar Palm Grand Hillside（500）</t>
+  </si>
+  <si>
+    <t>卡塔海滩
+玛丽莎别墅套房酒店 
+Malisa Villa Suites（1500）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芭东海滩
+普吉岛千禧芭东度假村 
+Millennium Resort Patong Phuket（700） </t>
+  </si>
+  <si>
+    <t>过渡酒店 待定</t>
+  </si>
+  <si>
     <t>酒店间交通</t>
   </si>
   <si>
-    <t>无</t>
+    <t>淘宝接机直达</t>
   </si>
   <si>
     <t>步行或TUTU</t>
@@ -141,120 +231,193 @@
     <t>包车司机送达</t>
   </si>
   <si>
-    <t>淘宝接机直达</t>
-  </si>
-  <si>
-    <t>机场等待 4:10 起飞</t>
-  </si>
-  <si>
-    <t>10:40抵达入关</t>
-  </si>
-  <si>
-    <t>慈溪</t>
-  </si>
-  <si>
-    <t>晚饭</t>
-  </si>
-  <si>
-    <t>慈溪开车前往上海</t>
-  </si>
-  <si>
-    <t>江西冷购物
-班赞生鲜市场</t>
-  </si>
-  <si>
-    <t>拉威海鲜市场/或其他地方
-吃饭</t>
-  </si>
-  <si>
-    <t>酒店附近吃饭
-行李寄存到新酒店</t>
-  </si>
-  <si>
-    <t>芭东夜市</t>
-  </si>
-  <si>
-    <t>张江晚饭</t>
-  </si>
-  <si>
-    <t>前往机场
-浦东机场日上免税店购物</t>
-  </si>
-  <si>
-    <t>回酒店附近吃饭</t>
-  </si>
-  <si>
-    <t>King Power购物
-普吉镇</t>
-  </si>
-  <si>
-    <t>机场吃饭/或回家附近补觉</t>
+    <t>同一家酒店(无)</t>
   </si>
   <si>
     <t>步行</t>
   </si>
   <si>
-    <t>同一家酒店(无)</t>
-  </si>
-  <si>
-    <t>休息</t>
-  </si>
-  <si>
-    <t>9点酒店早饭</t>
-  </si>
-  <si>
-    <t>3:10 抵达普吉岛
-9点半酒店早饭</t>
-  </si>
-  <si>
-    <t>酒店早饭(赶路)</t>
-  </si>
-  <si>
-    <t>酒店早饭(自然醒)</t>
-  </si>
-  <si>
-    <t>酒店早饭 (自然醒)</t>
-  </si>
-  <si>
-    <t>卡塔海滩
-待定</t>
-  </si>
-  <si>
-    <t>芭东海滩
-待定</t>
-  </si>
-  <si>
-    <t>卡塔海滩游玩</t>
-  </si>
-  <si>
-    <t>附近吃饭
-寄存行李</t>
-  </si>
-  <si>
-    <t>待定</t>
+    <t>旅游团送达</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,24 +426,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -290,66 +639,314 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,29 +956,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -671,309 +1298,321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B11:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.57407407407407" customWidth="1"/>
+    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="34.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="26.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="20.1388888888889" customWidth="1"/>
+    <col min="10" max="10" width="27.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="2:10">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
+    <row r="14" ht="43.2" spans="2:10">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="15" ht="28.8" spans="2:10">
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="2:10">
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" ht="28.8" spans="2:10">
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" ht="57.6" spans="2:10">
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="C20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4" t="s">
+      <c r="F20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3" t="s">
+      <c r="G20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="H20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G17:G18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/phuket.xlsx
+++ b/phuket.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="30623" windowHeight="14244"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30630" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>备注</t>
   </si>
@@ -164,9 +164,6 @@
     <t>张江晚饭</t>
   </si>
   <si>
-    <t>芭东夜市</t>
-  </si>
-  <si>
     <t>回酒店附近吃饭</t>
   </si>
   <si>
@@ -238,186 +235,38 @@
   </si>
   <si>
     <t>旅游团送达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shabushi Jungceylon Mall </t>
+  </si>
+  <si>
+    <t>TUTU</t>
+  </si>
+  <si>
+    <t>休息到11点淘宝送机</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,198 +287,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -678,253 +341,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -936,6 +357,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,66 +383,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1298,26 +683,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.57407407407407" customWidth="1"/>
-    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="34.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="26.8518518518519" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="20.1388888888889" customWidth="1"/>
-    <col min="10" max="10" width="27.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="2:10">
@@ -1376,11 +760,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="2:10">
+    <row r="13" spans="2:10" ht="30">
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1405,24 +789,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="43.2" spans="2:10">
+    <row r="14" spans="2:10" ht="45">
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="4"/>
@@ -1430,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="2:10">
+    <row r="15" spans="2:10" ht="30">
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1443,11 +827,11 @@
       <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1455,7 +839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="2:10">
+    <row r="16" spans="2:10" ht="30">
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1468,11 +852,11 @@
       <c r="E16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1486,91 +870,103 @@
         <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" ht="28.8" spans="2:10">
+    <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" ht="57.6" spans="2:10">
+    <row r="19" spans="2:10" ht="45">
       <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1579,40 +975,31 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H14:H16"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>